--- a/Results/FlowOPT_Athey_v2_4000.xlsx
+++ b/Results/FlowOPT_Athey_v2_4000.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sina/Documents/GitHub/prescriptive-trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3E2C8-E5B2-CC4D-8468-0EC7A1CBF20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA06C1AC-9CEF-254A-A3D2-885F17616CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33480" yWindow="4040" windowWidth="27640" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="FlowOPT_Athey_v2_4000" sheetId="1" r:id="rId1"/>
+    <sheet name="Athey_v2_4000" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FlowOPT_Athey_v2_4000!$A$1:$Q$91</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="43">
   <si>
     <t>FlowOPT</t>
   </si>
@@ -56,6 +53,36 @@
   </si>
   <si>
     <t>data_train_0.5_5</t>
+  </si>
+  <si>
+    <t>data_train_0.6_1</t>
+  </si>
+  <si>
+    <t>data_train_0.6_2</t>
+  </si>
+  <si>
+    <t>data_train_0.6_3</t>
+  </si>
+  <si>
+    <t>data_train_0.6_4</t>
+  </si>
+  <si>
+    <t>data_train_0.6_5</t>
+  </si>
+  <si>
+    <t>data_train_0.75_1</t>
+  </si>
+  <si>
+    <t>data_train_0.75_2</t>
+  </si>
+  <si>
+    <t>data_train_0.75_3</t>
+  </si>
+  <si>
+    <t>data_train_0.75_4</t>
+  </si>
+  <si>
+    <t>data_train_0.75_5</t>
   </si>
   <si>
     <t>data_train_0.9_1</t>
@@ -127,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -961,67 +988,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1053,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.23984503746032701</v>
+        <v>0.32160210609436002</v>
       </c>
       <c r="K2">
         <v>237.16003088028299</v>
@@ -1100,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>12320.9317186386</v>
+        <v>2002.5387385005999</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.26919412612915</v>
+        <v>0.29464483261108398</v>
       </c>
       <c r="K3">
         <v>237.16003088028299</v>
@@ -1159,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.81070685386657</v>
+        <v>2.9927899837493799</v>
       </c>
       <c r="K4">
         <v>25.614110591665298</v>
@@ -1206,31 +1232,31 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>12320.9317186386</v>
+        <v>2188.19856339941</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.6006159782409601</v>
+        <v>3.01375007629394</v>
       </c>
       <c r="K5">
-        <v>237.16003088028299</v>
+        <v>25.614110591665298</v>
       </c>
       <c r="L5">
-        <v>50.149999999999899</v>
+        <v>82.875</v>
       </c>
       <c r="M5">
-        <v>70.525000000000006</v>
+        <v>49.3</v>
       </c>
       <c r="N5">
-        <v>571.54175403573504</v>
+        <v>73.998423295431394</v>
       </c>
       <c r="O5">
-        <v>50.149999999999899</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="P5">
-        <v>69.3</v>
+        <v>49.45</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1265,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>381.12991285324</v>
+        <v>457.86036992073002</v>
       </c>
       <c r="K6">
         <v>68.853436107727305</v>
@@ -1312,31 +1338,31 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>12320.9317186386</v>
+        <v>2188.19856339941</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>310.71030616760203</v>
+        <v>339.430109024047</v>
       </c>
       <c r="K7">
-        <v>237.16003088028299</v>
+        <v>25.614110591665298</v>
       </c>
       <c r="L7">
-        <v>50.149999999999899</v>
+        <v>82.875</v>
       </c>
       <c r="M7">
-        <v>70.525000000000006</v>
+        <v>49.3</v>
       </c>
       <c r="N7">
-        <v>571.54175403573504</v>
+        <v>73.998423295431394</v>
       </c>
       <c r="O7">
-        <v>50.149999999999899</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="P7">
-        <v>69.3</v>
+        <v>49.45</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1371,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.24743604660034099</v>
+        <v>0.22627305984497001</v>
       </c>
       <c r="K8">
         <v>255.09916401260099</v>
@@ -1418,13 +1444,13 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>20959.973947980401</v>
+        <v>2071.4278541163799</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.23312425613403301</v>
+        <v>0.21839690208435</v>
       </c>
       <c r="K9">
         <v>212.55195097183201</v>
@@ -1477,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.7080283164978001</v>
+        <v>2.44111108779907</v>
       </c>
       <c r="K10">
         <v>30.662495912093899</v>
@@ -1524,31 +1550,31 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>20959.973947980401</v>
+        <v>2256.3518042539599</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.3723130226135201</v>
+        <v>2.4339792728424001</v>
       </c>
       <c r="K11">
-        <v>212.55195097183201</v>
+        <v>30.662495912093899</v>
       </c>
       <c r="L11">
-        <v>52.075000000000003</v>
+        <v>80.45</v>
       </c>
       <c r="M11">
-        <v>69.45</v>
+        <v>49.875</v>
       </c>
       <c r="N11">
-        <v>597.31817159847299</v>
+        <v>83.437467983800602</v>
       </c>
       <c r="O11">
-        <v>48.54</v>
+        <v>79.38</v>
       </c>
       <c r="P11">
-        <v>70.78</v>
+        <v>49.86</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1583,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>421.13333392143198</v>
+        <v>364.16732382774302</v>
       </c>
       <c r="K12">
         <v>75.722705407761794</v>
@@ -1630,31 +1656,31 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>20959.973947980401</v>
+        <v>2256.3518042539599</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>377.53445100784302</v>
+        <v>275.40975284576399</v>
       </c>
       <c r="K13">
-        <v>212.55195097183201</v>
+        <v>30.662495912093899</v>
       </c>
       <c r="L13">
-        <v>52.075000000000003</v>
+        <v>80.45</v>
       </c>
       <c r="M13">
-        <v>69.45</v>
+        <v>49.875</v>
       </c>
       <c r="N13">
-        <v>597.31817159847299</v>
+        <v>83.437467983800602</v>
       </c>
       <c r="O13">
-        <v>48.54</v>
+        <v>79.38</v>
       </c>
       <c r="P13">
-        <v>70.78</v>
+        <v>49.86</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1689,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.23874783515930101</v>
+        <v>0.22732281684875399</v>
       </c>
       <c r="K14">
         <v>228.31802434532301</v>
@@ -1736,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>17190.6326802693</v>
+        <v>2022.2834696914399</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.234447240829467</v>
+        <v>0.23129796981811501</v>
       </c>
       <c r="K15">
         <v>228.31802434532301</v>
@@ -1795,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.5821790695190399</v>
+        <v>2.50114393234252</v>
       </c>
       <c r="K16">
         <v>35.856310231784498</v>
@@ -1842,31 +1868,31 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>17190.6326802693</v>
+        <v>2229.1535885926301</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.1224009990692099</v>
+        <v>2.7057640552520699</v>
       </c>
       <c r="K17">
-        <v>228.31802434532301</v>
+        <v>35.856310231784498</v>
       </c>
       <c r="L17">
-        <v>49.225000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="M17">
-        <v>70.075000000000003</v>
+        <v>49.95</v>
       </c>
       <c r="N17">
-        <v>564.693219227295</v>
+        <v>99.567506086115998</v>
       </c>
       <c r="O17">
-        <v>49.99</v>
+        <v>77.58</v>
       </c>
       <c r="P17">
-        <v>69.86</v>
+        <v>50.349999999999902</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>301.838384151458</v>
+        <v>311.20285797119101</v>
       </c>
       <c r="K18">
         <v>65.6434328319542</v>
@@ -1948,31 +1974,31 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>17190.6326802693</v>
+        <v>2239.4000061920601</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>260.58141207695002</v>
+        <v>308.08920431137</v>
       </c>
       <c r="K19">
-        <v>228.31802434532301</v>
+        <v>66.376907017495498</v>
       </c>
       <c r="L19">
-        <v>49.225000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="M19">
-        <v>70.075000000000003</v>
+        <v>30.099999999999898</v>
       </c>
       <c r="N19">
-        <v>564.693219227295</v>
+        <v>167.61125223150501</v>
       </c>
       <c r="O19">
-        <v>49.99</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="P19">
-        <v>69.86</v>
+        <v>30.659999999999901</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2007,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.36115288734436002</v>
+        <v>0.250591039657592</v>
       </c>
       <c r="K20">
         <v>260.66178533753498</v>
@@ -2054,13 +2080,13 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>9325.0162138777196</v>
+        <v>1995.3566444662499</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.27905917167663502</v>
+        <v>0.35987520217895502</v>
       </c>
       <c r="K21">
         <v>197.16000459006901</v>
@@ -2113,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.92433285713195</v>
+        <v>2.2214298248290998</v>
       </c>
       <c r="K22">
         <v>41.161140822841404</v>
@@ -2160,31 +2186,31 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>9325.0162138777196</v>
+        <v>2157.1182708783799</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.3698167800903298</v>
+        <v>2.8044590950012198</v>
       </c>
       <c r="K23">
-        <v>197.16000459006901</v>
+        <v>41.161140822841404</v>
       </c>
       <c r="L23">
-        <v>52.849999999999902</v>
+        <v>77.75</v>
       </c>
       <c r="M23">
-        <v>68.400000000000006</v>
+        <v>50.149999999999899</v>
       </c>
       <c r="N23">
-        <v>557.49839166732295</v>
+        <v>100.814417839122</v>
       </c>
       <c r="O23">
-        <v>50.08</v>
+        <v>77.95</v>
       </c>
       <c r="P23">
-        <v>70.09</v>
+        <v>49.72</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2219,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>349.297928810119</v>
+        <v>319.69762706756501</v>
       </c>
       <c r="K24">
         <v>69.553573825887199</v>
@@ -2266,31 +2292,31 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>9325.0162138777196</v>
+        <v>2157.1182708783799</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>277.78137373924199</v>
+        <v>314.521343946456</v>
       </c>
       <c r="K25">
-        <v>197.16000459006901</v>
+        <v>41.161140822841404</v>
       </c>
       <c r="L25">
-        <v>52.849999999999902</v>
+        <v>77.75</v>
       </c>
       <c r="M25">
-        <v>68.400000000000006</v>
+        <v>50.149999999999899</v>
       </c>
       <c r="N25">
-        <v>557.49839166732295</v>
+        <v>100.814417839122</v>
       </c>
       <c r="O25">
-        <v>50.08</v>
+        <v>77.95</v>
       </c>
       <c r="P25">
-        <v>70.09</v>
+        <v>49.72</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2325,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.25494885444641102</v>
+        <v>0.281659126281738</v>
       </c>
       <c r="K26">
         <v>211.72637537511801</v>
@@ -2372,31 +2398,31 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>16322.8220987595</v>
+        <v>1977.31727052521</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.23970198631286599</v>
+        <v>0.36043405532836897</v>
       </c>
       <c r="K27">
-        <v>257.11251103516202</v>
+        <v>211.72637537511801</v>
       </c>
       <c r="L27">
-        <v>47.774999999999999</v>
+        <v>52.225000000000001</v>
       </c>
       <c r="M27">
-        <v>68.325000000000003</v>
+        <v>31.674999999999901</v>
       </c>
       <c r="N27">
-        <v>601.16540512251402</v>
+        <v>543.138418895531</v>
       </c>
       <c r="O27">
-        <v>48.66</v>
+        <v>51.339999999999897</v>
       </c>
       <c r="P27">
-        <v>69.459999999999994</v>
+        <v>30.54</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2431,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.71414017677307</v>
+        <v>2.46206307411193</v>
       </c>
       <c r="K28">
         <v>102.67048710508099</v>
@@ -2478,31 +2504,31 @@
         <v>2</v>
       </c>
       <c r="H29">
-        <v>16322.8220987595</v>
+        <v>2214.7718626488199</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2.6683070659637398</v>
+        <v>2.3269979953765798</v>
       </c>
       <c r="K29">
-        <v>257.11251103516202</v>
+        <v>33.329769213813798</v>
       </c>
       <c r="L29">
-        <v>47.774999999999999</v>
+        <v>80.224999999999994</v>
       </c>
       <c r="M29">
-        <v>68.325000000000003</v>
+        <v>49.424999999999997</v>
       </c>
       <c r="N29">
-        <v>601.16540512251402</v>
+        <v>88.618363450375796</v>
       </c>
       <c r="O29">
-        <v>48.66</v>
+        <v>78.62</v>
       </c>
       <c r="P29">
-        <v>69.459999999999994</v>
+        <v>49.72</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2537,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>340.55052685737598</v>
+        <v>337.38463377952502</v>
       </c>
       <c r="K30">
         <v>57.606290411138801</v>
@@ -2584,31 +2610,31 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>16322.8220987595</v>
+        <v>2214.7718626488199</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>293.51782512664698</v>
+        <v>259.16745495796198</v>
       </c>
       <c r="K31">
-        <v>257.11251103516202</v>
+        <v>33.329769213813798</v>
       </c>
       <c r="L31">
-        <v>47.774999999999999</v>
+        <v>80.224999999999994</v>
       </c>
       <c r="M31">
-        <v>68.325000000000003</v>
+        <v>49.424999999999997</v>
       </c>
       <c r="N31">
-        <v>601.16540512251402</v>
+        <v>88.618363450375796</v>
       </c>
       <c r="O31">
-        <v>48.66</v>
+        <v>78.62</v>
       </c>
       <c r="P31">
-        <v>69.459999999999994</v>
+        <v>49.72</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2643,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.26667070388793901</v>
+        <v>0.45614504814147899</v>
       </c>
       <c r="K32">
         <v>237.16003088028299</v>
@@ -2690,13 +2716,13 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>1994.7900029350101</v>
+        <v>2006.0314821540701</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.31689715385437001</v>
+        <v>0.278812885284423</v>
       </c>
       <c r="K33">
         <v>237.16003088028299</v>
@@ -2749,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3.4495108127593901</v>
+        <v>3.69310307502746</v>
       </c>
       <c r="K34">
         <v>25.614110591665298</v>
@@ -2796,13 +2822,13 @@
         <v>2</v>
       </c>
       <c r="H35">
-        <v>2233.2834399872399</v>
+        <v>2235.7269378208998</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3.20700907707214</v>
+        <v>3.27269291877746</v>
       </c>
       <c r="K35">
         <v>25.614110591665298</v>
@@ -2855,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>477.75810480117798</v>
+        <v>441.94710707664399</v>
       </c>
       <c r="K36">
         <v>25.614110591665298</v>
@@ -2902,13 +2928,13 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>2233.2834399872399</v>
+        <v>2235.7269378208998</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>452.07395100593499</v>
+        <v>432.65346717834399</v>
       </c>
       <c r="K37">
         <v>25.614110591665298</v>
@@ -2961,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.228838205337524</v>
+        <v>0.275240898132324</v>
       </c>
       <c r="K38">
         <v>255.09916401260099</v>
@@ -3008,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>2042.22600602176</v>
+        <v>2041.2850379412801</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.213797807693481</v>
+        <v>0.219372749328613</v>
       </c>
       <c r="K39">
         <v>212.55195097183201</v>
@@ -3067,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.3505969047546298</v>
+        <v>3.19052529335021</v>
       </c>
       <c r="K40">
         <v>101.19978038891399</v>
@@ -3114,13 +3140,13 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>2212.9508587008099</v>
+        <v>2228.2637645294799</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2.9004049301147399</v>
+        <v>3.1543109416961599</v>
       </c>
       <c r="K41">
         <v>30.662495912093899</v>
@@ -3173,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>577.779747009277</v>
+        <v>408.32400321960398</v>
       </c>
       <c r="K42">
         <v>78.536497803524298</v>
@@ -3220,31 +3246,31 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>2216.8489159344399</v>
+        <v>2228.2637645294799</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>501.97396492958001</v>
+        <v>445.080916881561</v>
       </c>
       <c r="K43">
-        <v>66.656120552848506</v>
+        <v>30.662495912093899</v>
       </c>
       <c r="L43">
-        <v>73.5</v>
+        <v>80.45</v>
       </c>
       <c r="M43">
-        <v>51.725000000000001</v>
+        <v>50.324999999999903</v>
       </c>
       <c r="N43">
-        <v>163.851886681178</v>
+        <v>83.437467983800602</v>
       </c>
       <c r="O43">
-        <v>75.84</v>
+        <v>79.38</v>
       </c>
       <c r="P43">
-        <v>50.06</v>
+        <v>50.12</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -3279,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.24604892730712799</v>
+        <v>0.233969211578369</v>
       </c>
       <c r="K44">
         <v>224.14467036206401</v>
@@ -3326,13 +3352,13 @@
         <v>2</v>
       </c>
       <c r="H45">
-        <v>1997.0192408032301</v>
+        <v>1995.45307225077</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.23953509330749501</v>
+        <v>0.286505937576293</v>
       </c>
       <c r="K45">
         <v>224.14467036206401</v>
@@ -3385,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3.6762199401855402</v>
+        <v>3.2198288440704301</v>
       </c>
       <c r="K46">
         <v>35.856310231784498</v>
@@ -3432,13 +3458,13 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>2176.2656335647998</v>
+        <v>2185.1980834549099</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.47181916236877</v>
+        <v>3.36446213722229</v>
       </c>
       <c r="K47">
         <v>35.856310231784498</v>
@@ -3491,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>422.927665948867</v>
+        <v>414.73530411720202</v>
       </c>
       <c r="K48">
         <v>35.856310231784498</v>
@@ -3538,13 +3564,13 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>2176.2656335647998</v>
+        <v>2185.1980834549099</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>432.307427167892</v>
+        <v>494.66378784179602</v>
       </c>
       <c r="K49">
         <v>35.856310231784498</v>
@@ -3597,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.2322359085083</v>
+        <v>0.245142936706542</v>
       </c>
       <c r="K50">
         <v>197.16000459006901</v>
@@ -3644,13 +3670,13 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>2035.68114359213</v>
+        <v>2041.9339721813301</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.25643801689147899</v>
+        <v>0.25466990470886203</v>
       </c>
       <c r="K51">
         <v>197.16000459006901</v>
@@ -3703,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>3.19619393348693</v>
+        <v>3.16111707687377</v>
       </c>
       <c r="K52">
         <v>41.161140822841404</v>
@@ -3750,13 +3776,13 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>2193.1744051182</v>
+        <v>2202.2207060512901</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>3.5623106956481898</v>
+        <v>3.0196242332458398</v>
       </c>
       <c r="K53">
         <v>41.161140822841404</v>
@@ -3809,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>471.24245500564501</v>
+        <v>439.18218922615</v>
       </c>
       <c r="K54">
         <v>41.161140822841404</v>
@@ -3856,13 +3882,13 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <v>2193.1744051182</v>
+        <v>2202.2207060512901</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>601.69035387039105</v>
+        <v>443.64430689811701</v>
       </c>
       <c r="K55">
         <v>41.161140822841404</v>
@@ -3915,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.72580099105834905</v>
+        <v>0.240402936935424</v>
       </c>
       <c r="K56">
         <v>211.72637537511801</v>
@@ -3962,13 +3988,13 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>2001.2344069563101</v>
+        <v>1988.6036869173299</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.462584018707275</v>
+        <v>0.232029914855957</v>
       </c>
       <c r="K57">
         <v>211.72637537511801</v>
@@ -4021,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>4.3614649772643999</v>
+        <v>3.5808970928192099</v>
       </c>
       <c r="K58">
         <v>33.329769213813798</v>
@@ -4068,13 +4094,13 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>2174.3847460050301</v>
+        <v>2211.7002552757599</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>5.4171011447906396</v>
+        <v>3.2415971755981401</v>
       </c>
       <c r="K59">
         <v>33.329769213813798</v>
@@ -4127,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>717.77277898788395</v>
+        <v>435.86282491683897</v>
       </c>
       <c r="K60">
         <v>66.934514951981399</v>
@@ -4174,13 +4200,13 @@
         <v>2</v>
       </c>
       <c r="H61">
-        <v>2209.2257493298298</v>
+        <v>2233.1331851027999</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>628.19713401794399</v>
+        <v>459.46901130676201</v>
       </c>
       <c r="K61">
         <v>66.934514951981399</v>
@@ -4227,31 +4253,31 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>2038.6632621523199</v>
+        <v>1998.10923456869</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.26169991493225098</v>
+        <v>0.48042631149291898</v>
       </c>
       <c r="K62">
-        <v>239.88667046558299</v>
+        <v>237.16003088028299</v>
       </c>
       <c r="L62">
-        <v>49.85</v>
+        <v>50.149999999999899</v>
       </c>
       <c r="M62">
-        <v>70.674999999999997</v>
+        <v>45.174999999999997</v>
       </c>
       <c r="N62">
-        <v>582.62869047087895</v>
+        <v>571.54175403573504</v>
       </c>
       <c r="O62">
-        <v>49.85</v>
+        <v>50.149999999999899</v>
       </c>
       <c r="P62">
-        <v>69.25</v>
+        <v>44.62</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -4280,13 +4306,13 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>8682.2312522348093</v>
+        <v>1995.8278277071699</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.28774285316467202</v>
+        <v>0.241468906402587</v>
       </c>
       <c r="K63">
         <v>239.88667046558299</v>
@@ -4295,7 +4321,7 @@
         <v>49.85</v>
       </c>
       <c r="M63">
-        <v>70.674999999999997</v>
+        <v>54.825000000000003</v>
       </c>
       <c r="N63">
         <v>582.62869047087895</v>
@@ -4304,7 +4330,7 @@
         <v>49.85</v>
       </c>
       <c r="P63">
-        <v>69.25</v>
+        <v>55.379999999999903</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -4333,13 +4359,13 @@
         <v>2</v>
       </c>
       <c r="H64">
-        <v>2093.56217158565</v>
+        <v>2218.0582528285099</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>2.95522785186767</v>
+        <v>4.7149879932403502</v>
       </c>
       <c r="K64">
         <v>25.614110591665298</v>
@@ -4348,7 +4374,7 @@
         <v>82.875</v>
       </c>
       <c r="M64">
-        <v>49.8</v>
+        <v>49.65</v>
       </c>
       <c r="N64">
         <v>73.998423295431394</v>
@@ -4357,7 +4383,7 @@
         <v>80.319999999999993</v>
       </c>
       <c r="P64">
-        <v>50.7</v>
+        <v>50.81</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -4386,31 +4412,31 @@
         <v>2</v>
       </c>
       <c r="H65">
-        <v>8682.2312522348093</v>
+        <v>2213.4942263419298</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>2.8198430538177401</v>
+        <v>3.4322040081024099</v>
       </c>
       <c r="K65">
-        <v>239.88667046558299</v>
+        <v>25.614110591665298</v>
       </c>
       <c r="L65">
-        <v>49.85</v>
+        <v>82.875</v>
       </c>
       <c r="M65">
-        <v>70.674999999999997</v>
+        <v>49.65</v>
       </c>
       <c r="N65">
-        <v>582.62869047087895</v>
+        <v>73.998423295431394</v>
       </c>
       <c r="O65">
-        <v>49.85</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="P65">
-        <v>69.25</v>
+        <v>50.81</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -4439,31 +4465,31 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>2117.9372471302299</v>
+        <v>2218.0582528285099</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>367.37616991996703</v>
+        <v>419.12788176536498</v>
       </c>
       <c r="K66">
-        <v>70.748057986888696</v>
+        <v>25.614110591665298</v>
       </c>
       <c r="L66">
-        <v>76.075000000000003</v>
+        <v>82.875</v>
       </c>
       <c r="M66">
-        <v>70.5</v>
+        <v>49.65</v>
       </c>
       <c r="N66">
-        <v>162.70623601656101</v>
+        <v>73.998423295431394</v>
       </c>
       <c r="O66">
-        <v>75.78</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="P66">
-        <v>70.319999999999993</v>
+        <v>50.81</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -4492,31 +4518,31 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>8682.2312522348093</v>
+        <v>2213.4942263419298</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>248.49361205100999</v>
+        <v>389.845007896423</v>
       </c>
       <c r="K67">
-        <v>239.88667046558299</v>
+        <v>25.614110591665298</v>
       </c>
       <c r="L67">
-        <v>49.85</v>
+        <v>82.875</v>
       </c>
       <c r="M67">
-        <v>70.674999999999997</v>
+        <v>49.65</v>
       </c>
       <c r="N67">
-        <v>582.62869047087895</v>
+        <v>73.998423295431394</v>
       </c>
       <c r="O67">
-        <v>49.85</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="P67">
-        <v>69.25</v>
+        <v>50.81</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -4545,31 +4571,31 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>2079.3551483997699</v>
+        <v>2062.41559574347</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.247998237609863</v>
+        <v>0.23889493942260701</v>
       </c>
       <c r="K68">
-        <v>212.55195097183201</v>
+        <v>255.09916401260099</v>
       </c>
       <c r="L68">
-        <v>52.075000000000003</v>
+        <v>47.924999999999997</v>
       </c>
       <c r="M68">
-        <v>30.25</v>
+        <v>56.774999999999999</v>
       </c>
       <c r="N68">
-        <v>597.31817159847299</v>
+        <v>548.93626858009702</v>
       </c>
       <c r="O68">
-        <v>48.54</v>
+        <v>51.459999999999901</v>
       </c>
       <c r="P68">
-        <v>29.459999999999901</v>
+        <v>54.73</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -4598,31 +4624,31 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <v>9103.0766273972495</v>
+        <v>2046.21603923727</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.23400020599365201</v>
+        <v>0.23486900329589799</v>
       </c>
       <c r="K69">
-        <v>255.09916401260099</v>
+        <v>212.55195097183201</v>
       </c>
       <c r="L69">
-        <v>47.924999999999997</v>
+        <v>52.075000000000003</v>
       </c>
       <c r="M69">
-        <v>69.75</v>
+        <v>43.225000000000001</v>
       </c>
       <c r="N69">
-        <v>548.93626858009702</v>
+        <v>597.31817159847299</v>
       </c>
       <c r="O69">
-        <v>51.459999999999901</v>
+        <v>48.54</v>
       </c>
       <c r="P69">
-        <v>70.540000000000006</v>
+        <v>45.269999999999897</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -4651,31 +4677,31 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <v>2233.8606760990401</v>
+        <v>2205.8756006241201</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>3.1883881092071502</v>
+        <v>2.9402267932891801</v>
       </c>
       <c r="K70">
-        <v>30.662495912093899</v>
+        <v>108.31059268304</v>
       </c>
       <c r="L70">
-        <v>80.45</v>
+        <v>68.474999999999994</v>
       </c>
       <c r="M70">
-        <v>50.375</v>
+        <v>55.725000000000001</v>
       </c>
       <c r="N70">
-        <v>83.437467983800602</v>
+        <v>259.5355199732</v>
       </c>
       <c r="O70">
-        <v>79.38</v>
+        <v>70.11</v>
       </c>
       <c r="P70">
-        <v>50.019999999999897</v>
+        <v>55.04</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -4704,31 +4730,31 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <v>9103.0766273972495</v>
+        <v>2238.5201262127398</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2.63175296783447</v>
+        <v>3.21892213821411</v>
       </c>
       <c r="K71">
-        <v>255.09916401260099</v>
+        <v>30.662495912093899</v>
       </c>
       <c r="L71">
-        <v>47.924999999999997</v>
+        <v>80.45</v>
       </c>
       <c r="M71">
-        <v>69.75</v>
+        <v>50.6</v>
       </c>
       <c r="N71">
-        <v>548.93626858009702</v>
+        <v>83.437467983800602</v>
       </c>
       <c r="O71">
-        <v>51.459999999999901</v>
+        <v>79.38</v>
       </c>
       <c r="P71">
-        <v>70.540000000000006</v>
+        <v>50.37</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -4757,31 +4783,31 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>2236.8112253710201</v>
+        <v>2244.9543526060902</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>317.19756960868801</v>
+        <v>399.53252410888598</v>
       </c>
       <c r="K72">
-        <v>56.1395708932464</v>
+        <v>78.536497803524298</v>
       </c>
       <c r="L72">
-        <v>77.825000000000003</v>
+        <v>72.75</v>
       </c>
       <c r="M72">
-        <v>50.849999999999902</v>
+        <v>57.099999999999902</v>
       </c>
       <c r="N72">
-        <v>170.04210823628401</v>
+        <v>163.46601674757301</v>
       </c>
       <c r="O72">
-        <v>74.33</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="P72">
-        <v>49.87</v>
+        <v>55.35</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -4810,31 +4836,31 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>9103.0766273972495</v>
+        <v>2238.6349456110802</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>252.01158595085101</v>
+        <v>431.08812689781098</v>
       </c>
       <c r="K73">
-        <v>255.09916401260099</v>
+        <v>66.656120552848506</v>
       </c>
       <c r="L73">
-        <v>47.924999999999997</v>
+        <v>73.5</v>
       </c>
       <c r="M73">
-        <v>69.75</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>548.93626858009702</v>
+        <v>163.851886681178</v>
       </c>
       <c r="O73">
-        <v>51.459999999999901</v>
+        <v>75.84</v>
       </c>
       <c r="P73">
-        <v>70.540000000000006</v>
+        <v>50.61</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -4863,13 +4889,13 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <v>2021.3711570271601</v>
+        <v>2005.2556734094401</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.32862401008605902</v>
+        <v>0.231884956359863</v>
       </c>
       <c r="K74">
         <v>224.14467036206401</v>
@@ -4878,7 +4904,7 @@
         <v>50.774999999999999</v>
       </c>
       <c r="M74">
-        <v>70.075000000000003</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="N74">
         <v>567.95869213532603</v>
@@ -4887,7 +4913,7 @@
         <v>50.01</v>
       </c>
       <c r="P74">
-        <v>69.84</v>
+        <v>55.52</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -4916,13 +4942,13 @@
         <v>2</v>
       </c>
       <c r="H75">
-        <v>9558.95780399262</v>
+        <v>1993.95496451548</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.322670698165893</v>
+        <v>0.242131948471069</v>
       </c>
       <c r="K75">
         <v>224.14467036206401</v>
@@ -4931,7 +4957,7 @@
         <v>50.774999999999999</v>
       </c>
       <c r="M75">
-        <v>70.075000000000003</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="N75">
         <v>567.95869213532603</v>
@@ -4940,7 +4966,7 @@
         <v>50.01</v>
       </c>
       <c r="P75">
-        <v>69.84</v>
+        <v>55.52</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -4969,31 +4995,31 @@
         <v>2</v>
       </c>
       <c r="H76">
-        <v>2151.2114953645701</v>
+        <v>2165.89740428203</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>3.1413402557372998</v>
+        <v>6.9479990005493102</v>
       </c>
       <c r="K76">
-        <v>98.481494680782006</v>
+        <v>35.856310231784498</v>
       </c>
       <c r="L76">
-        <v>71.125</v>
+        <v>78.8</v>
       </c>
       <c r="M76">
-        <v>70.025000000000006</v>
+        <v>49.9</v>
       </c>
       <c r="N76">
-        <v>241.617850562716</v>
+        <v>99.567506086115998</v>
       </c>
       <c r="O76">
-        <v>71.86</v>
+        <v>77.58</v>
       </c>
       <c r="P76">
-        <v>69.930000000000007</v>
+        <v>49.55</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -5022,31 +5048,31 @@
         <v>2</v>
       </c>
       <c r="H77">
-        <v>9558.95780399262</v>
+        <v>2172.3805542779601</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>4.2342562675476003</v>
+        <v>5.4611361026763898</v>
       </c>
       <c r="K77">
-        <v>224.14467036206401</v>
+        <v>35.856310231784498</v>
       </c>
       <c r="L77">
-        <v>50.774999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="M77">
-        <v>70.075000000000003</v>
+        <v>49.9</v>
       </c>
       <c r="N77">
-        <v>567.95869213532603</v>
+        <v>99.567506086115998</v>
       </c>
       <c r="O77">
-        <v>50.01</v>
+        <v>77.58</v>
       </c>
       <c r="P77">
-        <v>69.84</v>
+        <v>49.55</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -5075,31 +5101,31 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>2151.2114953645701</v>
+        <v>2175.51051026083</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>339.01504015922501</v>
+        <v>542.93557786941506</v>
       </c>
       <c r="K78">
-        <v>98.481494680782006</v>
+        <v>65.637611155194506</v>
       </c>
       <c r="L78">
-        <v>71.125</v>
+        <v>75.575000000000003</v>
       </c>
       <c r="M78">
-        <v>70.025000000000006</v>
+        <v>55.524999999999999</v>
       </c>
       <c r="N78">
-        <v>241.617850562716</v>
+        <v>173.58674875790601</v>
       </c>
       <c r="O78">
-        <v>71.86</v>
+        <v>74.59</v>
       </c>
       <c r="P78">
-        <v>69.930000000000007</v>
+        <v>55.08</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -5128,31 +5154,31 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <v>9558.95780399262</v>
+        <v>2172.3805542779601</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>301.35558891296301</v>
+        <v>538.38108181953396</v>
       </c>
       <c r="K79">
-        <v>224.14467036206401</v>
+        <v>35.856310231784498</v>
       </c>
       <c r="L79">
-        <v>50.774999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="M79">
-        <v>70.075000000000003</v>
+        <v>49.9</v>
       </c>
       <c r="N79">
-        <v>567.95869213532603</v>
+        <v>99.567506086115998</v>
       </c>
       <c r="O79">
-        <v>50.01</v>
+        <v>77.58</v>
       </c>
       <c r="P79">
-        <v>69.84</v>
+        <v>49.55</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -5181,13 +5207,13 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1987.6830060412501</v>
+        <v>2010.6155067459199</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.29722094535827598</v>
+        <v>0.222163915634155</v>
       </c>
       <c r="K80">
         <v>260.66178533753498</v>
@@ -5196,7 +5222,7 @@
         <v>47.15</v>
       </c>
       <c r="M80">
-        <v>69.424999999999997</v>
+        <v>55.325000000000003</v>
       </c>
       <c r="N80">
         <v>573.00077247630395</v>
@@ -5205,7 +5231,7 @@
         <v>49.919999999999902</v>
       </c>
       <c r="P80">
-        <v>69.95</v>
+        <v>55.03</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -5234,31 +5260,31 @@
         <v>2</v>
       </c>
       <c r="H81">
-        <v>7344.7249528284001</v>
+        <v>2036.3521985426701</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.24799394607543901</v>
+        <v>0.22892808914184501</v>
       </c>
       <c r="K81">
-        <v>260.66178533753498</v>
+        <v>197.16000459006901</v>
       </c>
       <c r="L81">
-        <v>47.15</v>
+        <v>52.849999999999902</v>
       </c>
       <c r="M81">
-        <v>69.424999999999997</v>
+        <v>44.674999999999997</v>
       </c>
       <c r="N81">
-        <v>573.00077247630395</v>
+        <v>557.49839166732295</v>
       </c>
       <c r="O81">
-        <v>49.919999999999902</v>
+        <v>50.08</v>
       </c>
       <c r="P81">
-        <v>69.95</v>
+        <v>44.97</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -5287,31 +5313,31 @@
         <v>2</v>
       </c>
       <c r="H82">
-        <v>2142.7655825490501</v>
+        <v>2178.2125567366902</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>3.0271649360656698</v>
+        <v>3.1318199634552002</v>
       </c>
       <c r="K82">
-        <v>98.070623999232296</v>
+        <v>41.161140822841404</v>
       </c>
       <c r="L82">
-        <v>71.099999999999994</v>
+        <v>77.75</v>
       </c>
       <c r="M82">
-        <v>70.275000000000006</v>
+        <v>49.674999999999997</v>
       </c>
       <c r="N82">
-        <v>241.50886337370599</v>
+        <v>100.814417839122</v>
       </c>
       <c r="O82">
-        <v>71.44</v>
+        <v>77.95</v>
       </c>
       <c r="P82">
-        <v>70.17</v>
+        <v>50.96</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -5340,31 +5366,31 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>7344.7249528284001</v>
+        <v>2199.0457808209499</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>3.2812018394470202</v>
+        <v>3.1316862106323198</v>
       </c>
       <c r="K83">
-        <v>260.66178533753498</v>
+        <v>41.161140822841404</v>
       </c>
       <c r="L83">
-        <v>47.15</v>
+        <v>77.75</v>
       </c>
       <c r="M83">
-        <v>69.424999999999997</v>
+        <v>49.674999999999997</v>
       </c>
       <c r="N83">
-        <v>573.00077247630395</v>
+        <v>100.814417839122</v>
       </c>
       <c r="O83">
-        <v>49.919999999999902</v>
+        <v>77.95</v>
       </c>
       <c r="P83">
-        <v>69.95</v>
+        <v>50.96</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -5393,31 +5419,31 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>2189.2394713676799</v>
+        <v>2184.7577012453899</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>368.115155220031</v>
+        <v>477.30433917045502</v>
       </c>
       <c r="K84">
-        <v>82.180483093672805</v>
+        <v>66.823057314832297</v>
       </c>
       <c r="L84">
-        <v>72.150000000000006</v>
+        <v>77.724999999999994</v>
       </c>
       <c r="M84">
-        <v>70.075000000000003</v>
+        <v>56.05</v>
       </c>
       <c r="N84">
-        <v>170.61564764896701</v>
+        <v>173.870443693635</v>
       </c>
       <c r="O84">
-        <v>74.929999999999893</v>
+        <v>74.11</v>
       </c>
       <c r="P84">
-        <v>70.8</v>
+        <v>54.44</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -5446,31 +5472,31 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <v>7344.7249528284001</v>
+        <v>2199.0457808209499</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>397.75516009330698</v>
+        <v>391.23059701919499</v>
       </c>
       <c r="K85">
-        <v>260.66178533753498</v>
+        <v>41.161140822841404</v>
       </c>
       <c r="L85">
-        <v>47.15</v>
+        <v>77.75</v>
       </c>
       <c r="M85">
-        <v>69.424999999999997</v>
+        <v>49.674999999999997</v>
       </c>
       <c r="N85">
-        <v>573.00077247630395</v>
+        <v>100.814417839122</v>
       </c>
       <c r="O85">
-        <v>49.919999999999902</v>
+        <v>77.95</v>
       </c>
       <c r="P85">
-        <v>69.95</v>
+        <v>50.96</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -5499,31 +5525,31 @@
         <v>2</v>
       </c>
       <c r="H86">
-        <v>1936.4322832084799</v>
+        <v>1980.10013431061</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.37742495536804199</v>
+        <v>0.24708390235900801</v>
       </c>
       <c r="K86">
-        <v>257.11251103516202</v>
+        <v>211.72637537511801</v>
       </c>
       <c r="L86">
-        <v>47.774999999999999</v>
+        <v>52.225000000000001</v>
       </c>
       <c r="M86">
-        <v>30.55</v>
+        <v>54.6</v>
       </c>
       <c r="N86">
-        <v>601.16540512251402</v>
+        <v>543.138418895531</v>
       </c>
       <c r="O86">
-        <v>48.66</v>
+        <v>51.339999999999897</v>
       </c>
       <c r="P86">
-        <v>30.509999999999899</v>
+        <v>55.35</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -5552,31 +5578,31 @@
         <v>2</v>
       </c>
       <c r="H87">
-        <v>16375.861314804701</v>
+        <v>1980.00735220872</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.59866690635681097</v>
+        <v>0.22745704650878901</v>
       </c>
       <c r="K87">
-        <v>211.72637537511801</v>
+        <v>257.11251103516202</v>
       </c>
       <c r="L87">
-        <v>52.225000000000001</v>
+        <v>47.774999999999999</v>
       </c>
       <c r="M87">
-        <v>69.45</v>
+        <v>45.4</v>
       </c>
       <c r="N87">
-        <v>543.138418895531</v>
+        <v>601.16540512251402</v>
       </c>
       <c r="O87">
-        <v>51.339999999999897</v>
+        <v>48.66</v>
       </c>
       <c r="P87">
-        <v>69.489999999999995</v>
+        <v>44.65</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -5605,13 +5631,13 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>2236.1571250633101</v>
+        <v>2223.3985133278302</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>3.41993188858032</v>
+        <v>3.0194239616393999</v>
       </c>
       <c r="K88">
         <v>33.329769213813798</v>
@@ -5620,7 +5646,7 @@
         <v>80.224999999999994</v>
       </c>
       <c r="M88">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="N88">
         <v>88.618363450375796</v>
@@ -5629,7 +5655,7 @@
         <v>78.62</v>
       </c>
       <c r="P88">
-        <v>50.19</v>
+        <v>49.669999999999902</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -5658,31 +5684,31 @@
         <v>2</v>
       </c>
       <c r="H89">
-        <v>16375.861314804701</v>
+        <v>2219.47362660102</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>2.6983537673950102</v>
+        <v>3.2345888614654501</v>
       </c>
       <c r="K89">
-        <v>211.72637537511801</v>
+        <v>33.329769213813798</v>
       </c>
       <c r="L89">
-        <v>52.225000000000001</v>
+        <v>80.224999999999994</v>
       </c>
       <c r="M89">
-        <v>69.45</v>
+        <v>51.4</v>
       </c>
       <c r="N89">
-        <v>543.138418895531</v>
+        <v>88.618363450375796</v>
       </c>
       <c r="O89">
-        <v>51.339999999999897</v>
+        <v>78.62</v>
       </c>
       <c r="P89">
-        <v>69.489999999999995</v>
+        <v>49.669999999999902</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -5711,13 +5737,13 @@
         <v>2</v>
       </c>
       <c r="H90">
-        <v>2262.2736737157802</v>
+        <v>2240.5100600680798</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>395.86820936202997</v>
+        <v>419.09249997138897</v>
       </c>
       <c r="K90">
         <v>66.934514951981399</v>
@@ -5726,7 +5752,7 @@
         <v>73.724999999999994</v>
       </c>
       <c r="M90">
-        <v>72.25</v>
+        <v>56.95</v>
       </c>
       <c r="N90">
         <v>169.135885242456</v>
@@ -5735,7 +5761,7 @@
         <v>74.06</v>
       </c>
       <c r="P90">
-        <v>70.430000000000007</v>
+        <v>55.269999999999897</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5764,38 +5790,3217 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <v>16375.861314804701</v>
+        <v>2219.47362660102</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>272.50111722946099</v>
+        <v>386.048835992813</v>
       </c>
       <c r="K91">
-        <v>211.72637537511801</v>
+        <v>33.329769213813798</v>
       </c>
       <c r="L91">
-        <v>52.225000000000001</v>
+        <v>80.224999999999994</v>
       </c>
       <c r="M91">
-        <v>69.45</v>
+        <v>51.4</v>
       </c>
       <c r="N91">
-        <v>543.138418895531</v>
+        <v>88.618363450375796</v>
       </c>
       <c r="O91">
-        <v>51.339999999999897</v>
+        <v>78.62</v>
       </c>
       <c r="P91">
-        <v>69.489999999999995</v>
+        <v>49.669999999999902</v>
       </c>
       <c r="Q91">
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>4000</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <v>3600</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>1994.77178618281</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.327461957931518</v>
+      </c>
+      <c r="K92">
+        <v>239.88667046558299</v>
+      </c>
+      <c r="L92">
+        <v>49.85</v>
+      </c>
+      <c r="M92">
+        <v>62.4</v>
+      </c>
+      <c r="N92">
+        <v>582.62869047087895</v>
+      </c>
+      <c r="O92">
+        <v>49.85</v>
+      </c>
+      <c r="P92">
+        <v>62.139999999999901</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>4000</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93">
+        <v>3600</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>2005.2326350098699</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.23989725112915</v>
+      </c>
+      <c r="K93">
+        <v>239.88667046558299</v>
+      </c>
+      <c r="L93">
+        <v>49.85</v>
+      </c>
+      <c r="M93">
+        <v>62.4</v>
+      </c>
+      <c r="N93">
+        <v>582.62869047087895</v>
+      </c>
+      <c r="O93">
+        <v>49.85</v>
+      </c>
+      <c r="P93">
+        <v>62.139999999999901</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>4000</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>3600</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2186.0609676896102</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>3.0595200061797998</v>
+      </c>
+      <c r="K94">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L94">
+        <v>82.875</v>
+      </c>
+      <c r="M94">
+        <v>49.575000000000003</v>
+      </c>
+      <c r="N94">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O94">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P94">
+        <v>50.33</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>4000</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95">
+        <v>3600</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2175.2798708912301</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>3.31849908828735</v>
+      </c>
+      <c r="K95">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L95">
+        <v>82.875</v>
+      </c>
+      <c r="M95">
+        <v>49.575000000000003</v>
+      </c>
+      <c r="N95">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O95">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P95">
+        <v>50.33</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>4000</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+      <c r="F96">
+        <v>3600</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>2186.0609676896102</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>433.94688010215702</v>
+      </c>
+      <c r="K96">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L96">
+        <v>82.875</v>
+      </c>
+      <c r="M96">
+        <v>49.575000000000003</v>
+      </c>
+      <c r="N96">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O96">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P96">
+        <v>50.33</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>4000</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <v>3600</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>2175.2798708912301</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>429.75673890113802</v>
+      </c>
+      <c r="K97">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L97">
+        <v>82.875</v>
+      </c>
+      <c r="M97">
+        <v>49.575000000000003</v>
+      </c>
+      <c r="N97">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O97">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P97">
+        <v>50.33</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>4000</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98">
+        <v>3600</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>2043.97852814679</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.24515986442565901</v>
+      </c>
+      <c r="K98">
+        <v>212.55195097183201</v>
+      </c>
+      <c r="L98">
+        <v>52.075000000000003</v>
+      </c>
+      <c r="M98">
+        <v>36.625</v>
+      </c>
+      <c r="N98">
+        <v>597.31817159847299</v>
+      </c>
+      <c r="O98">
+        <v>48.54</v>
+      </c>
+      <c r="P98">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>4000</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99">
+        <v>3600</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2062.4491886864398</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.27463674545288003</v>
+      </c>
+      <c r="K99">
+        <v>212.55195097183201</v>
+      </c>
+      <c r="L99">
+        <v>52.075000000000003</v>
+      </c>
+      <c r="M99">
+        <v>36.625</v>
+      </c>
+      <c r="N99">
+        <v>597.31817159847299</v>
+      </c>
+      <c r="O99">
+        <v>48.54</v>
+      </c>
+      <c r="P99">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>4000</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100">
+        <v>3600</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>2245.3385501989701</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2.7477660179138099</v>
+      </c>
+      <c r="K100">
+        <v>30.662495912093899</v>
+      </c>
+      <c r="L100">
+        <v>80.45</v>
+      </c>
+      <c r="M100">
+        <v>51.1</v>
+      </c>
+      <c r="N100">
+        <v>83.437467983800602</v>
+      </c>
+      <c r="O100">
+        <v>79.38</v>
+      </c>
+      <c r="P100">
+        <v>50.1</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>4000</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101">
+        <v>3600</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>2256.9891223342402</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.7500038146972599</v>
+      </c>
+      <c r="K101">
+        <v>30.662495912093899</v>
+      </c>
+      <c r="L101">
+        <v>80.45</v>
+      </c>
+      <c r="M101">
+        <v>51.1</v>
+      </c>
+      <c r="N101">
+        <v>83.437467983800602</v>
+      </c>
+      <c r="O101">
+        <v>79.38</v>
+      </c>
+      <c r="P101">
+        <v>50.1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>4000</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <v>3600</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>2245.3385501989701</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>432.661090135574</v>
+      </c>
+      <c r="K102">
+        <v>30.662495912093899</v>
+      </c>
+      <c r="L102">
+        <v>80.45</v>
+      </c>
+      <c r="M102">
+        <v>51.1</v>
+      </c>
+      <c r="N102">
+        <v>83.437467983800602</v>
+      </c>
+      <c r="O102">
+        <v>79.38</v>
+      </c>
+      <c r="P102">
+        <v>50.1</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>4000</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>3600</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>2256.9891223342402</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>360.59786701202302</v>
+      </c>
+      <c r="K103">
+        <v>30.662495912093899</v>
+      </c>
+      <c r="L103">
+        <v>80.45</v>
+      </c>
+      <c r="M103">
+        <v>51.1</v>
+      </c>
+      <c r="N103">
+        <v>83.437467983800602</v>
+      </c>
+      <c r="O103">
+        <v>79.38</v>
+      </c>
+      <c r="P103">
+        <v>50.1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104">
+        <v>4000</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="F104">
+        <v>3600</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>2005.8236176232101</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0.22275304794311501</v>
+      </c>
+      <c r="K104">
+        <v>228.31802434532301</v>
+      </c>
+      <c r="L104">
+        <v>49.225000000000001</v>
+      </c>
+      <c r="M104">
+        <v>37.424999999999997</v>
+      </c>
+      <c r="N104">
+        <v>564.693219227295</v>
+      </c>
+      <c r="O104">
+        <v>49.99</v>
+      </c>
+      <c r="P104">
+        <v>37.32</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>4000</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105">
+        <v>3600</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>2000.74789541682</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0.22872185707092199</v>
+      </c>
+      <c r="K105">
+        <v>228.31802434532301</v>
+      </c>
+      <c r="L105">
+        <v>49.225000000000001</v>
+      </c>
+      <c r="M105">
+        <v>37.424999999999997</v>
+      </c>
+      <c r="N105">
+        <v>564.693219227295</v>
+      </c>
+      <c r="O105">
+        <v>49.99</v>
+      </c>
+      <c r="P105">
+        <v>37.32</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>4000</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106">
+        <v>3600</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>2191.1868796225099</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>3.5447032451629599</v>
+      </c>
+      <c r="K106">
+        <v>35.856310231784498</v>
+      </c>
+      <c r="L106">
+        <v>78.8</v>
+      </c>
+      <c r="M106">
+        <v>50.449999999999903</v>
+      </c>
+      <c r="N106">
+        <v>99.567506086115998</v>
+      </c>
+      <c r="O106">
+        <v>77.58</v>
+      </c>
+      <c r="P106">
+        <v>49.29</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>4000</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107">
+        <v>3600</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>2187.4964243867098</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>3.7271301746368399</v>
+      </c>
+      <c r="K107">
+        <v>35.856310231784498</v>
+      </c>
+      <c r="L107">
+        <v>78.8</v>
+      </c>
+      <c r="M107">
+        <v>50.449999999999903</v>
+      </c>
+      <c r="N107">
+        <v>99.567506086115998</v>
+      </c>
+      <c r="O107">
+        <v>77.58</v>
+      </c>
+      <c r="P107">
+        <v>49.29</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>4000</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+      <c r="F108">
+        <v>3600</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>2191.1868796225099</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>482.24330806732098</v>
+      </c>
+      <c r="K108">
+        <v>35.856310231784498</v>
+      </c>
+      <c r="L108">
+        <v>78.8</v>
+      </c>
+      <c r="M108">
+        <v>50.449999999999903</v>
+      </c>
+      <c r="N108">
+        <v>99.567506086115998</v>
+      </c>
+      <c r="O108">
+        <v>77.58</v>
+      </c>
+      <c r="P108">
+        <v>49.29</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>4000</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>3600</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>2187.4964243867098</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>487.94021773338301</v>
+      </c>
+      <c r="K109">
+        <v>35.856310231784498</v>
+      </c>
+      <c r="L109">
+        <v>78.8</v>
+      </c>
+      <c r="M109">
+        <v>50.449999999999903</v>
+      </c>
+      <c r="N109">
+        <v>99.567506086115998</v>
+      </c>
+      <c r="O109">
+        <v>77.58</v>
+      </c>
+      <c r="P109">
+        <v>49.29</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>4000</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110">
+        <v>3600</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>2052.0453299355499</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.22124433517455999</v>
+      </c>
+      <c r="K110">
+        <v>197.16000459006901</v>
+      </c>
+      <c r="L110">
+        <v>52.849999999999902</v>
+      </c>
+      <c r="M110">
+        <v>38.324999999999903</v>
+      </c>
+      <c r="N110">
+        <v>557.49839166732295</v>
+      </c>
+      <c r="O110">
+        <v>50.08</v>
+      </c>
+      <c r="P110">
+        <v>37.519999999999897</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4000</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+      <c r="F111">
+        <v>3600</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2077.0356248967901</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0.28634309768676702</v>
+      </c>
+      <c r="K111">
+        <v>197.16000459006901</v>
+      </c>
+      <c r="L111">
+        <v>52.849999999999902</v>
+      </c>
+      <c r="M111">
+        <v>38.324999999999903</v>
+      </c>
+      <c r="N111">
+        <v>557.49839166732295</v>
+      </c>
+      <c r="O111">
+        <v>50.08</v>
+      </c>
+      <c r="P111">
+        <v>37.519999999999897</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>4000</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+      <c r="F112">
+        <v>3600</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>2249.4845379793701</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2.8920748233795099</v>
+      </c>
+      <c r="K112">
+        <v>41.161140822841404</v>
+      </c>
+      <c r="L112">
+        <v>77.75</v>
+      </c>
+      <c r="M112">
+        <v>50.575000000000003</v>
+      </c>
+      <c r="N112">
+        <v>100.814417839122</v>
+      </c>
+      <c r="O112">
+        <v>77.95</v>
+      </c>
+      <c r="P112">
+        <v>50.71</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>4000</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113">
+        <v>3600</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>2265.8368107318101</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2.8062469959259002</v>
+      </c>
+      <c r="K113">
+        <v>41.161140822841404</v>
+      </c>
+      <c r="L113">
+        <v>77.75</v>
+      </c>
+      <c r="M113">
+        <v>50.575000000000003</v>
+      </c>
+      <c r="N113">
+        <v>100.814417839122</v>
+      </c>
+      <c r="O113">
+        <v>77.95</v>
+      </c>
+      <c r="P113">
+        <v>50.71</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>4000</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114">
+        <v>3600</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>2249.4845379793701</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>368.431921958923</v>
+      </c>
+      <c r="K114">
+        <v>41.161140822841404</v>
+      </c>
+      <c r="L114">
+        <v>77.75</v>
+      </c>
+      <c r="M114">
+        <v>50.575000000000003</v>
+      </c>
+      <c r="N114">
+        <v>100.814417839122</v>
+      </c>
+      <c r="O114">
+        <v>77.95</v>
+      </c>
+      <c r="P114">
+        <v>50.71</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>4000</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
+        <v>3600</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>2265.8368107318101</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>394.789556980133</v>
+      </c>
+      <c r="K115">
+        <v>41.161140822841404</v>
+      </c>
+      <c r="L115">
+        <v>77.75</v>
+      </c>
+      <c r="M115">
+        <v>50.575000000000003</v>
+      </c>
+      <c r="N115">
+        <v>100.814417839122</v>
+      </c>
+      <c r="O115">
+        <v>77.95</v>
+      </c>
+      <c r="P115">
+        <v>50.71</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>4000</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+      <c r="F116">
+        <v>3600</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>2002.35600959772</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0.34091973304748502</v>
+      </c>
+      <c r="K116">
+        <v>257.11251103516202</v>
+      </c>
+      <c r="L116">
+        <v>47.774999999999999</v>
+      </c>
+      <c r="M116">
+        <v>38.375</v>
+      </c>
+      <c r="N116">
+        <v>601.16540512251402</v>
+      </c>
+      <c r="O116">
+        <v>48.66</v>
+      </c>
+      <c r="P116">
+        <v>37.33</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>4000</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117">
+        <v>3600</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>1990.6101995331701</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0.41907691955566401</v>
+      </c>
+      <c r="K117">
+        <v>257.11251103516202</v>
+      </c>
+      <c r="L117">
+        <v>47.774999999999999</v>
+      </c>
+      <c r="M117">
+        <v>38.375</v>
+      </c>
+      <c r="N117">
+        <v>601.16540512251402</v>
+      </c>
+      <c r="O117">
+        <v>48.66</v>
+      </c>
+      <c r="P117">
+        <v>37.33</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>4000</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118">
+        <v>3600</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>2251.4167134714799</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>3.1083948612213099</v>
+      </c>
+      <c r="K118">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L118">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M118">
+        <v>51.924999999999997</v>
+      </c>
+      <c r="N118">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O118">
+        <v>78.62</v>
+      </c>
+      <c r="P118">
+        <v>50.37</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>4000</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="F119">
+        <v>3600</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>2243.2245238195001</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>3.3075418472289999</v>
+      </c>
+      <c r="K119">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L119">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M119">
+        <v>51.924999999999997</v>
+      </c>
+      <c r="N119">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O119">
+        <v>78.62</v>
+      </c>
+      <c r="P119">
+        <v>50.37</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>4000</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
+      </c>
+      <c r="F120">
+        <v>3600</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>2251.4167134714799</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>348.893694877624</v>
+      </c>
+      <c r="K120">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L120">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M120">
+        <v>51.924999999999997</v>
+      </c>
+      <c r="N120">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O120">
+        <v>78.62</v>
+      </c>
+      <c r="P120">
+        <v>50.37</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>4000</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>100</v>
+      </c>
+      <c r="F121">
+        <v>3600</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>2243.2245238195001</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>395.876430034637</v>
+      </c>
+      <c r="K121">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L121">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M121">
+        <v>51.924999999999997</v>
+      </c>
+      <c r="N121">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O121">
+        <v>78.62</v>
+      </c>
+      <c r="P121">
+        <v>50.37</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>4000</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
+        <v>3600</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>2038.6632621523199</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0.25124096870422302</v>
+      </c>
+      <c r="K122">
+        <v>239.88667046558299</v>
+      </c>
+      <c r="L122">
+        <v>49.85</v>
+      </c>
+      <c r="M122">
+        <v>70.674999999999997</v>
+      </c>
+      <c r="N122">
+        <v>582.62869047087895</v>
+      </c>
+      <c r="O122">
+        <v>49.85</v>
+      </c>
+      <c r="P122">
+        <v>69.25</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>4000</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123">
+        <v>3600</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>2018.4831944365401</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0.298805952072143</v>
+      </c>
+      <c r="K123">
+        <v>239.88667046558299</v>
+      </c>
+      <c r="L123">
+        <v>49.85</v>
+      </c>
+      <c r="M123">
+        <v>70.674999999999997</v>
+      </c>
+      <c r="N123">
+        <v>582.62869047087895</v>
+      </c>
+      <c r="O123">
+        <v>49.85</v>
+      </c>
+      <c r="P123">
+        <v>69.25</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>4000</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <v>3600</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <v>2093.56217158565</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>2.6887652873992902</v>
+      </c>
+      <c r="K124">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L124">
+        <v>82.875</v>
+      </c>
+      <c r="M124">
+        <v>49.8</v>
+      </c>
+      <c r="N124">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O124">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P124">
+        <v>50.7</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <v>4000</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125">
+        <v>3600</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>2125.0394347338001</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>2.75475621223449</v>
+      </c>
+      <c r="K125">
+        <v>25.614110591665298</v>
+      </c>
+      <c r="L125">
+        <v>82.875</v>
+      </c>
+      <c r="M125">
+        <v>49.8</v>
+      </c>
+      <c r="N125">
+        <v>73.998423295431394</v>
+      </c>
+      <c r="O125">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="P125">
+        <v>50.7</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126">
+        <v>4000</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+      <c r="F126">
+        <v>3600</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>2117.9372471302299</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>316.71862602233801</v>
+      </c>
+      <c r="K126">
+        <v>70.748057986888696</v>
+      </c>
+      <c r="L126">
+        <v>76.075000000000003</v>
+      </c>
+      <c r="M126">
+        <v>70.5</v>
+      </c>
+      <c r="N126">
+        <v>162.70623601656101</v>
+      </c>
+      <c r="O126">
+        <v>75.78</v>
+      </c>
+      <c r="P126">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127">
+        <v>4000</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127">
+        <v>3600</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>2140.3759679579398</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>337.74134683608997</v>
+      </c>
+      <c r="K127">
+        <v>70.748057986888696</v>
+      </c>
+      <c r="L127">
+        <v>76.075000000000003</v>
+      </c>
+      <c r="M127">
+        <v>70.5</v>
+      </c>
+      <c r="N127">
+        <v>162.70623601656101</v>
+      </c>
+      <c r="O127">
+        <v>75.78</v>
+      </c>
+      <c r="P127">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>4000</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+      <c r="F128">
+        <v>3600</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2079.3551483997699</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0.256702899932861</v>
+      </c>
+      <c r="K128">
+        <v>212.55195097183201</v>
+      </c>
+      <c r="L128">
+        <v>52.075000000000003</v>
+      </c>
+      <c r="M128">
+        <v>30.25</v>
+      </c>
+      <c r="N128">
+        <v>597.31817159847299</v>
+      </c>
+      <c r="O128">
+        <v>48.54</v>
+      </c>
+      <c r="P128">
+        <v>29.459999999999901</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>4000</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129">
+        <v>3600</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2008.6732371647199</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0.24458909034729001</v>
+      </c>
+      <c r="K129">
+        <v>212.55195097183201</v>
+      </c>
+      <c r="L129">
+        <v>52.075000000000003</v>
+      </c>
+      <c r="M129">
+        <v>30.25</v>
+      </c>
+      <c r="N129">
+        <v>597.31817159847299</v>
+      </c>
+      <c r="O129">
+        <v>48.54</v>
+      </c>
+      <c r="P129">
+        <v>29.459999999999901</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130">
+        <v>4000</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+      <c r="F130">
+        <v>3600</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>2233.8606760990401</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>2.9064080715179399</v>
+      </c>
+      <c r="K130">
+        <v>30.662495912093899</v>
+      </c>
+      <c r="L130">
+        <v>80.45</v>
+      </c>
+      <c r="M130">
+        <v>50.375</v>
+      </c>
+      <c r="N130">
+        <v>83.437467983800602</v>
+      </c>
+      <c r="O130">
+        <v>79.38</v>
+      </c>
+      <c r="P130">
+        <v>50.019999999999897</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131">
+        <v>4000</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131">
+        <v>3600</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>2184.66321084846</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>2.60547423362731</v>
+      </c>
+      <c r="K131">
+        <v>108.31059268304</v>
+      </c>
+      <c r="L131">
+        <v>68.474999999999994</v>
+      </c>
+      <c r="M131">
+        <v>69.899999999999906</v>
+      </c>
+      <c r="N131">
+        <v>259.5355199732</v>
+      </c>
+      <c r="O131">
+        <v>70.11</v>
+      </c>
+      <c r="P131">
+        <v>70.23</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>4000</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132">
+        <v>3600</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>2236.8112253710201</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>340.44115805625898</v>
+      </c>
+      <c r="K132">
+        <v>56.1395708932464</v>
+      </c>
+      <c r="L132">
+        <v>77.825000000000003</v>
+      </c>
+      <c r="M132">
+        <v>50.849999999999902</v>
+      </c>
+      <c r="N132">
+        <v>170.04210823628401</v>
+      </c>
+      <c r="O132">
+        <v>74.33</v>
+      </c>
+      <c r="P132">
+        <v>49.87</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133">
+        <v>4000</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>100</v>
+      </c>
+      <c r="F133">
+        <v>3600</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>2205.0263706143101</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>296.58505821227999</v>
+      </c>
+      <c r="K133">
+        <v>78.536497803524298</v>
+      </c>
+      <c r="L133">
+        <v>72.75</v>
+      </c>
+      <c r="M133">
+        <v>71.025000000000006</v>
+      </c>
+      <c r="N133">
+        <v>163.46601674757301</v>
+      </c>
+      <c r="O133">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="P133">
+        <v>70.42</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>4000</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134">
+        <v>3600</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>2021.3711570271601</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0.21892809867858801</v>
+      </c>
+      <c r="K134">
+        <v>224.14467036206401</v>
+      </c>
+      <c r="L134">
+        <v>50.774999999999999</v>
+      </c>
+      <c r="M134">
+        <v>70.075000000000003</v>
+      </c>
+      <c r="N134">
+        <v>567.95869213532603</v>
+      </c>
+      <c r="O134">
+        <v>50.01</v>
+      </c>
+      <c r="P134">
+        <v>69.84</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>4000</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135">
+        <v>3600</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>2015.39421832633</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0.23554873466491699</v>
+      </c>
+      <c r="K135">
+        <v>224.14467036206401</v>
+      </c>
+      <c r="L135">
+        <v>50.774999999999999</v>
+      </c>
+      <c r="M135">
+        <v>70.075000000000003</v>
+      </c>
+      <c r="N135">
+        <v>567.95869213532603</v>
+      </c>
+      <c r="O135">
+        <v>50.01</v>
+      </c>
+      <c r="P135">
+        <v>69.84</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>4000</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>100</v>
+      </c>
+      <c r="F136">
+        <v>3600</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>2151.2114953645701</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>3.2287709712982098</v>
+      </c>
+      <c r="K136">
+        <v>98.481494680782006</v>
+      </c>
+      <c r="L136">
+        <v>71.125</v>
+      </c>
+      <c r="M136">
+        <v>70.025000000000006</v>
+      </c>
+      <c r="N136">
+        <v>241.617850562716</v>
+      </c>
+      <c r="O136">
+        <v>71.86</v>
+      </c>
+      <c r="P136">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>4000</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137">
+        <v>3600</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>2092.2768026000899</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>4.03891897201538</v>
+      </c>
+      <c r="K137">
+        <v>98.481494680782006</v>
+      </c>
+      <c r="L137">
+        <v>71.125</v>
+      </c>
+      <c r="M137">
+        <v>70.025000000000006</v>
+      </c>
+      <c r="N137">
+        <v>241.617850562716</v>
+      </c>
+      <c r="O137">
+        <v>71.86</v>
+      </c>
+      <c r="P137">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138">
+        <v>4000</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138">
+        <v>3600</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>2151.2114953645701</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>326.24042320251402</v>
+      </c>
+      <c r="K138">
+        <v>98.481494680782006</v>
+      </c>
+      <c r="L138">
+        <v>71.125</v>
+      </c>
+      <c r="M138">
+        <v>70.025000000000006</v>
+      </c>
+      <c r="N138">
+        <v>241.617850562716</v>
+      </c>
+      <c r="O138">
+        <v>71.86</v>
+      </c>
+      <c r="P138">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>4000</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139">
+        <v>3600</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>2124.9403421659199</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>317.95083093643098</v>
+      </c>
+      <c r="K139">
+        <v>96.158207940905399</v>
+      </c>
+      <c r="L139">
+        <v>71.474999999999994</v>
+      </c>
+      <c r="M139">
+        <v>89.525000000000006</v>
+      </c>
+      <c r="N139">
+        <v>241.63049490329601</v>
+      </c>
+      <c r="O139">
+        <v>71.8</v>
+      </c>
+      <c r="P139">
+        <v>89.55</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
+        <v>4000</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>3600</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
+        <v>1987.6830060412501</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0.22023582458495999</v>
+      </c>
+      <c r="K140">
+        <v>260.66178533753498</v>
+      </c>
+      <c r="L140">
+        <v>47.15</v>
+      </c>
+      <c r="M140">
+        <v>69.424999999999997</v>
+      </c>
+      <c r="N140">
+        <v>573.00077247630395</v>
+      </c>
+      <c r="O140">
+        <v>49.919999999999902</v>
+      </c>
+      <c r="P140">
+        <v>69.95</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141">
+        <v>4000</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>100</v>
+      </c>
+      <c r="F141">
+        <v>3600</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>2064.54698325543</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0.21871709823608301</v>
+      </c>
+      <c r="K141">
+        <v>197.16000459006901</v>
+      </c>
+      <c r="L141">
+        <v>52.849999999999902</v>
+      </c>
+      <c r="M141">
+        <v>30.574999999999999</v>
+      </c>
+      <c r="N141">
+        <v>557.49839166732295</v>
+      </c>
+      <c r="O141">
+        <v>50.08</v>
+      </c>
+      <c r="P141">
+        <v>30.049999999999901</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142">
+        <v>4000</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>3600</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>2142.7655825490501</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2.4592657089233398</v>
+      </c>
+      <c r="K142">
+        <v>98.070623999232296</v>
+      </c>
+      <c r="L142">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="M142">
+        <v>70.275000000000006</v>
+      </c>
+      <c r="N142">
+        <v>241.50886337370599</v>
+      </c>
+      <c r="O142">
+        <v>71.44</v>
+      </c>
+      <c r="P142">
+        <v>70.17</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>4000</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143">
+        <v>3600</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>2244.3433432990901</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>2.4739928245544398</v>
+      </c>
+      <c r="K143">
+        <v>41.161140822841404</v>
+      </c>
+      <c r="L143">
+        <v>77.75</v>
+      </c>
+      <c r="M143">
+        <v>50.024999999999999</v>
+      </c>
+      <c r="N143">
+        <v>100.814417839122</v>
+      </c>
+      <c r="O143">
+        <v>77.95</v>
+      </c>
+      <c r="P143">
+        <v>50.38</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>4000</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144">
+        <v>3600</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>2189.2394713676799</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>310.69483709335299</v>
+      </c>
+      <c r="K144">
+        <v>82.180483093672805</v>
+      </c>
+      <c r="L144">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="M144">
+        <v>70.075000000000003</v>
+      </c>
+      <c r="N144">
+        <v>170.61564764896701</v>
+      </c>
+      <c r="O144">
+        <v>74.929999999999893</v>
+      </c>
+      <c r="P144">
+        <v>70.8</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145">
+        <v>4000</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <v>3600</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>2252.4414197344299</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>277.393440008163</v>
+      </c>
+      <c r="K145">
+        <v>69.955628690332901</v>
+      </c>
+      <c r="L145">
+        <v>71.674999999999997</v>
+      </c>
+      <c r="M145">
+        <v>50.749999999999901</v>
+      </c>
+      <c r="N145">
+        <v>162.87368748853601</v>
+      </c>
+      <c r="O145">
+        <v>75.81</v>
+      </c>
+      <c r="P145">
+        <v>50.8</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>4000</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146">
+        <v>3600</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>1936.4322832084799</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0.258331298828125</v>
+      </c>
+      <c r="K146">
+        <v>257.11251103516202</v>
+      </c>
+      <c r="L146">
+        <v>47.774999999999999</v>
+      </c>
+      <c r="M146">
+        <v>30.55</v>
+      </c>
+      <c r="N146">
+        <v>601.16540512251402</v>
+      </c>
+      <c r="O146">
+        <v>48.66</v>
+      </c>
+      <c r="P146">
+        <v>30.509999999999899</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>4000</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147">
+        <v>3600</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>2018.1969833709099</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0.24014306068420399</v>
+      </c>
+      <c r="K147">
+        <v>257.11251103516202</v>
+      </c>
+      <c r="L147">
+        <v>47.774999999999999</v>
+      </c>
+      <c r="M147">
+        <v>30.55</v>
+      </c>
+      <c r="N147">
+        <v>601.16540512251402</v>
+      </c>
+      <c r="O147">
+        <v>48.66</v>
+      </c>
+      <c r="P147">
+        <v>30.509999999999899</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>4000</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148">
+        <v>3600</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>2236.1571250633101</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>2.5384242534637398</v>
+      </c>
+      <c r="K148">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L148">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M148">
+        <v>52.2</v>
+      </c>
+      <c r="N148">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O148">
+        <v>78.62</v>
+      </c>
+      <c r="P148">
+        <v>50.19</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>4000</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149">
+        <v>3600</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>2300.0162856935299</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2.6534118652343701</v>
+      </c>
+      <c r="K149">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L149">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M149">
+        <v>52.2</v>
+      </c>
+      <c r="N149">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O149">
+        <v>78.62</v>
+      </c>
+      <c r="P149">
+        <v>50.19</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>4000</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="F150">
+        <v>3600</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>2262.2736737157802</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>373.48646402358997</v>
+      </c>
+      <c r="K150">
+        <v>66.934514951981399</v>
+      </c>
+      <c r="L150">
+        <v>73.724999999999994</v>
+      </c>
+      <c r="M150">
+        <v>72.25</v>
+      </c>
+      <c r="N150">
+        <v>169.135885242456</v>
+      </c>
+      <c r="O150">
+        <v>74.06</v>
+      </c>
+      <c r="P150">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>4000</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+      <c r="F151">
+        <v>3600</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>2300.0162856935299</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>295.22939419746399</v>
+      </c>
+      <c r="K151">
+        <v>33.329769213813798</v>
+      </c>
+      <c r="L151">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="M151">
+        <v>52.2</v>
+      </c>
+      <c r="N151">
+        <v>88.618363450375796</v>
+      </c>
+      <c r="O151">
+        <v>78.62</v>
+      </c>
+      <c r="P151">
+        <v>50.19</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q91" xr:uid="{12A2AAC0-5669-B54F-9CF8-E7D37207878A}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>